--- a/F_dataset/DUD-E/AKT2/AKT2_prepare/AKT2_inactive.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_prepare/AKT2_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5987,1602 +5987,6 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>CHEMBL3732044</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>282.41</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>8</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>CHEMBL3734458</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human AKT2 using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>CHEMBL2420903</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>330.39</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2</v>
-      </c>
-      <c r="M97" t="n">
-        <v>96.03</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>19</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>CHEMBL2424336</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>CHEMBL2420923</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>331.44</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2</v>
-      </c>
-      <c r="K98" t="n">
-        <v>4</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2</v>
-      </c>
-      <c r="M98" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>13</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>CHEMBL2424336</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>CHEMBL160586</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>387.74</v>
-      </c>
-      <c r="H99" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>3</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2</v>
-      </c>
-      <c r="M99" t="n">
-        <v>138.64</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>CHEMBL768272</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>Inhibition of Protein kinase B,beta at 10 uM</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>CHEMBL48082</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>210.24</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3</v>
-      </c>
-      <c r="M100" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>0</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>CHEMBL3599520</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta (unknown origin) at 0.5 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>CHEMBL1241578</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>348.2</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3</v>
-      </c>
-      <c r="M101" t="n">
-        <v>89.84999999999999</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>1</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>CHEMBL1243989</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 1 uM after 60 mins by FRET assay in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>CHEMBL4782133</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>427.49</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4</v>
-      </c>
-      <c r="L102" t="n">
-        <v>3</v>
-      </c>
-      <c r="M102" t="n">
-        <v>119.59</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>CHEMBL4701763</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT2 at 1 uM using fluorescently labeled peptide substrate measured after 3 hrs by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>CHEMBL1077739</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>354.84</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4</v>
-      </c>
-      <c r="L103" t="n">
-        <v>3</v>
-      </c>
-      <c r="M103" t="n">
-        <v>58.43</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>CHEMBL1111287</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CHEMBL84558</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>263.32</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>CHEMBL1012667</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CHEMBL1170749</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>291.31</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3</v>
-      </c>
-      <c r="K105" t="n">
-        <v>4</v>
-      </c>
-      <c r="L105" t="n">
-        <v>4</v>
-      </c>
-      <c r="M105" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>-8</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>CHEMBL1173998</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>CHEMBL1813788</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>240.27</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>3</v>
-      </c>
-      <c r="L106" t="n">
-        <v>3</v>
-      </c>
-      <c r="M106" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q106" t="n">
-        <v>1</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>CHEMBL1815736</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CHEMBL185962</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>242.24</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>4</v>
-      </c>
-      <c r="L107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M107" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>CHEMBL1880739</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>520.95</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2</v>
-      </c>
-      <c r="M108" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q108" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CHEMBL188247</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>504.47</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>7</v>
-      </c>
-      <c r="J109" t="n">
-        <v>4</v>
-      </c>
-      <c r="K109" t="n">
-        <v>6</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>86.45999999999999</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>CHEMBL1909351</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>332.36</v>
-      </c>
-      <c r="H110" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4</v>
-      </c>
-      <c r="K110" t="n">
-        <v>3</v>
-      </c>
-      <c r="L110" t="n">
-        <v>3</v>
-      </c>
-      <c r="M110" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>CHEMBL1909354</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>354.42</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4</v>
-      </c>
-      <c r="M111" t="n">
-        <v>80.23999999999999</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>CHEMBL231013</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>228.25</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3</v>
-      </c>
-      <c r="K112" t="n">
-        <v>2</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2</v>
-      </c>
-      <c r="M112" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>CHEMBL318728</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>236.27</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>3</v>
-      </c>
-      <c r="L113" t="n">
-        <v>3</v>
-      </c>
-      <c r="M113" t="n">
-        <v>38.06</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>CHEMBL505187</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>528.62</v>
-      </c>
-      <c r="H114" t="n">
-        <v>3</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>8</v>
-      </c>
-      <c r="K114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L114" t="n">
-        <v>6</v>
-      </c>
-      <c r="M114" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
